--- a/DOM_Banner/output/dept0713/Joseph S Alpert_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Joseph S Alpert_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,80 +447,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P.J. Devereaux, André Lamy, Matthew T. V. Chan, René V Allard, В. В. Ломиворотов, Giovanni Landoni, Hong Zheng, Domenico Paparella, Michael McGillion, Émilie P. Belley-Côté, Joel L. Parlow, Malcolm J. Underwood, Chew Yin Wang, Nazari Dvirnik, Marat Abubakirov, Evgeny Fominskiy, Stephen Choi, Stephen E. Fremes, Fabrizio Monaco, Gerard Urrútia, Marialuz Maestre, L Hajjar, Graham S. Hillis, Nicholas L Mills, Vito Margari, Joseph Mills, J Stephen Billing, Emily Methangkool, Carísi Anne Polanczyk, Roberto T. Sant’Anna, Dmitry Shukevich, David Conen, Peter A. Kavsak, Matthew McQueen, Katheryn Brady, Jessica Spence, Yannick Le Manach, Rajibul Mian, Shun Fu Lee, Shrikant I. Bangdiwala, Sara Hussain, Flávia Kessler Borges, Shirley Pettit, Jessica Vincent, Gordon Guyatt, Salim Yusuf, Joseph S. Alpert, Harvey D. White, Richard Whitlock</t>
+          <t>P.J. Devereaux, André Lamy, Matthew T. V. Chan, René V Allard, В. В. Ломиворотов, Giovanni Landoni, Hong Zheng, Domenico Paparella, Michael McGillion, Emilie P. Belley‐Côté, Joel L. Parlow, Malcolm J. Underwood, Chew Yin Wang, Nazari Dvirnik, Marat Abubakirov, Evgeny Fominskiy, Stephen Choi, Stephen E. Fremes, Fabrizio Monaco, Gerard Urrútia, Marialuz Maestre, L Hajjar, Graham S. Hillis, Nicholas L Mills, Vito Margari, Joseph Mills, J Stephen Billing, Emily Methangkool, Carísi Anne Polanczyk, Roberto T. Sant’Anna, Dmitry Shukevich, David Conen, Peter A. Kavsak, Matthew McQueen, Katheryn Brady, Jessica Spence, Yannick Le Manach, Rajibul Mian, Shun Fu Lee, Shrikant I. Bangdiwala, Sara Hussain, Flávia Kessler Borges, Shirley Pettit, Jessica Vincent, Gordon Guyatt, Salim Yusuf, Joseph S. Alpert, Harvey D. White, Richard Whitlock</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Hamilton Health Sciences; McMaster University; Population Health Research Institute; Hamilton Health Sciences; McMaster University; Population Health Research Institute; Chinese University of Hong Kong, Hong Kong; Hamilton, Queen’s University, Kingston; E. Meshalkin National Medical Research Center; Novosibirsk State University; IRCCS San Raffaele Scientific Institute; Vita-Salute San Raffaele University; First Affiliated Hospital of Xinjiang Medical University, Urumqi; Milan, the University of Foggia, Foggia; Santa Maria Hospital GVM Care and Research, Bari; McMaster University; Population Health Research Institute; Hamilton Health Sciences; McMaster University; Population Health Research Institute; Hamilton, Queen’s University, Kingston; Chinese University of Hong Kong, Hong Kong; University of Malaya, Kuala Lumpur, Malaysia; Hamilton Health Sciences; McMaster University; E. Meshalkin National Medical Research Center; IRCCS San Raffaele Scientific Institute; Sunnybrook Health Sciences Centre and the University of Toronto, Toronto; Sunnybrook Health Sciences Centre and the University of Toronto, Toronto; IRCCS San Raffaele Scientific Institute; Vita-Salute San Raffaele University; Hospital de la Santa Creu i Sant Pau; Institut d’Investigació Biomèdica Sant Pau–CIBERESP; Hospital de la Santa Creu i Sant Pau; Instituto do Coração, Hospital das Clinicas, Faculdade de Medicina da Universidade de São Paulo, São Paulo; Royal Perth Hospital and the University of Western Australia — both in Perth, Porto Alegre; University of Edinburgh, Edinburgh, Porto Alegre; Santa Maria Hospital GVM Care and Research, Bari; Liverpool Heart and Chest Hospital NHS Foundation Trust, Liverpool, Porto Alegre; Royal Wolverhampton NHS Trust, Wolverhampton, Porto Alegre; University of California, Los Angeles, Los Angeles; Hospital Moinhos de Vento; Hospital de Clínicas de Porto Alegre; Instituto de Cardiologia do Rio Grande do Sul; Research Institute for Complex Issues of Cardiovascular Diseases, Kemerovo, Novosibirsk; Hamilton Health Sciences; McMaster University; Population Health Research Institute; Hamilton Health Sciences; McMaster University; McMaster University; Population Health Research Institute; Population Health Research Institute; McMaster University; Population Health Research Institute; Hamilton Health Sciences; McMaster University; Population Health Research Institute; McMaster University; Population Health Research Institute; McMaster University; Population Health Research Institute; McMaster University; Population Health Research Institute; McMaster University; Hamilton Health Sciences; McMaster University; Population Health Research Institute; Population Health Research Institute; Population Health Research Institute; Hamilton Health Sciences; McMaster University; Hamilton Health Sciences; McMaster University; Population Health Research Institute; University of Arizona College of Medicine, Tucson; Auckland City Hospital and the University of Auckland — both in Auckland, New Zealand; Hamilton Health Sciences; McMaster University; Population Health Research Institute</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220697834</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>High-Sensitivity Troponin I after Cardiac Surgery and 30-Day Mortality</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The New England Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Massachusetts Medical Society</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1056/nejmoa2000803</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35235725</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1056/nejmoa2000803</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania.; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Department of Medicine, University of Arizona Medical School, Tucson; Department of Medicine, University of Arizona Medical School, Tucson; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine Faculty of Medicine, Vilnius University, Vilnius, Lithuania</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3200531740</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Randomized Pilot Trial on Optimal Treatment Strategy, Myocardial Changes, and Prognosis of Patients with Myocardial Infarction with Nonobstructive Coronary Arteries (MINOCA)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.08.023</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34562410</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.08.023</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>The American Journal of Medicine; University of Arizona College of Medicine, Sarver Heart Center, Tucson, Editor in Chief</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3214962424</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Medicine and Music – Is There a Connection?</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.11.003</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34852268</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.11.003</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Editor in Chief,; The American Journal of Medicine; University of Arizona College of Medicine, Tucson; Mayo Clinic, Rochester, Minn; Green Lane Cardiovascular Service, Auckland City Hospital, New Zealand; Aarhus University Hospital, Denmark</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220837251</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Type 1, Type 2 Myocardial Infarction and Non-Ischemic Myocardial Injury—Opinion from the Front Lines</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.03.004</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35341772</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.03.004</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4200144106</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Suggestions for Remaining Calm and Balanced During High Stress Times</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.12.001</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34922906</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.12.001</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Editor in Chief,; The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220907257</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>A Trip to Egypt: De-Nile</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.03.002</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35307359</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.03.002</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Editor in Chief,; Professor of Medicine, University of Arizona Department of Medicine, Tucson; The American Journal of Medicine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220958255</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Is Massage a Beneficial Intervention?</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.01.059</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35271810</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.01.059</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Editor-in-Chief,; The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3184336225</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Recent Thoughts Concerning Atrial Fibrillation</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.07.002</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34302753</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.07.002</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,39 +1148,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3196779570</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>A Philosophical Thought Experiment in Medical Ethics</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.08.003</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34508706</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.08.003</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Editor-in-Chief,; Professor of Medicine, University of Arizona College of Medicine, Sarver Heart Center, Tucson; The American Journal of Medicine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3207343614</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>The Reluctant Patient and the Insistent Doctor</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.10.001</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34656530</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.10.001</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Editor in Chief,; School of Medicine, University of Arizona, Tucson; The American Journal of Medicine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4200506886</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Advances in Science Are Not Linear; They Are Zigzag</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.10.042</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34879233</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2021.10.042</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,39 +1409,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Editor in Chief,; Professor of Medicine, University of Arizona Department of Medicine, Tucson; The American Journal of Medicine; Holsclaw Professor of Pharmacogenomics, Coit College of Pharmacy, The University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220694389</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Eleven Lifestyle and Clinical Reminders from Our Dogs</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.02.008</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35263634</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.02.008</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>The American Journal of Medicine; University of Arizona School of Medicine, Tucson, Editor in Chief,</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280522243</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Collateral Damage</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.04.013</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35577605</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.04.013</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,39 +1583,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>The Department of Medicine, New York Medical College, Westchester Medical Center, Valhalla; Editor in Chief,; The American Journal of Medicine; The University of Arizona College of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280554284</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>New Clinical Guidelines for the Diagnosis and Treatment of Heart Failure: Snatching Life from the Jaws of Death</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.05.001</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1553,35 +1623,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35569566</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.05.001</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Joseph S Alpert_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Joseph S Alpert_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>64</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1148,22 +1148,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>University of Arizona School of Medicine, Tucson</t>
+          <t>Editor-in-Chief,; Professor of Medicine, University of Arizona College of Medicine, Sarver Heart Center, Tucson; The American Journal of Medicine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3196779570</t>
+          <t>https://openalex.org/W3207343614</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A Philosophical Thought Experiment in Medical Ethics</t>
+          <t>The Reluctant Patient and the Insistent Doctor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2021.08.003</t>
+          <t>https://doi.org/10.1016/j.amjmed.2021.10.001</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/34508706</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/34656530</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2021.08.003</t>
+          <t>https://doi.org/10.1016/j.amjmed.2021.10.001</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1235,22 +1235,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Editor-in-Chief,; Professor of Medicine, University of Arizona College of Medicine, Sarver Heart Center, Tucson; The American Journal of Medicine</t>
+          <t>Editor in Chief,; School of Medicine, University of Arizona, Tucson; The American Journal of Medicine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3207343614</t>
+          <t>https://openalex.org/W4200506886</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The Reluctant Patient and the Insistent Doctor</t>
+          <t>Advances in Science Are Not Linear; They Are Zigzag</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2021.10.001</t>
+          <t>https://doi.org/10.1016/j.amjmed.2021.10.042</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/34656530</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/34879233</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2021.10.001</t>
+          <t>https://doi.org/10.1016/j.amjmed.2021.10.042</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1322,22 +1322,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Editor in Chief,; School of Medicine, University of Arizona, Tucson; The American Journal of Medicine</t>
+          <t>The American Journal of Medicine; University of Arizona School of Medicine, Tucson, Editor in Chief,</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200506886</t>
+          <t>https://openalex.org/W4280522243</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Advances in Science Are Not Linear; They Are Zigzag</t>
+          <t>Collateral Damage</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2021.10.042</t>
+          <t>https://doi.org/10.1016/j.amjmed.2022.04.013</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/34879233</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35577605</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2021.10.042</t>
+          <t>https://doi.org/10.1016/j.amjmed.2022.04.013</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,27 +1404,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Joseph S. Alpert, Qin M. Chen</t>
+          <t>Joseph S. Alpert</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Editor in Chief,; Professor of Medicine, University of Arizona Department of Medicine, Tucson; The American Journal of Medicine; Holsclaw Professor of Pharmacogenomics, Coit College of Pharmacy, The University of Arizona, Tucson</t>
+          <t>University of Arizona School of Medicine, Tucson</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220694389</t>
+          <t>https://openalex.org/W3196779570</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Eleven Lifestyle and Clinical Reminders from Our Dogs</t>
+          <t>A Philosophical Thought Experiment in Medical Ethics</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-02-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2022.02.008</t>
+          <t>https://doi.org/10.1016/j.amjmed.2021.08.003</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35263634</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/34508706</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2022.02.008</t>
+          <t>https://doi.org/10.1016/j.amjmed.2021.08.003</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,27 +1491,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joseph S. Alpert</t>
+          <t>Joseph S. Alpert, Qin M. Chen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The American Journal of Medicine; University of Arizona School of Medicine, Tucson, Editor in Chief,</t>
+          <t>Editor in Chief,; Professor of Medicine, University of Arizona Department of Medicine, Tucson; The American Journal of Medicine; Holsclaw Professor of Pharmacogenomics, Coit College of Pharmacy, The University of Arizona, Tucson</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4280522243</t>
+          <t>https://openalex.org/W4220694389</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Collateral Damage</t>
+          <t>Eleven Lifestyle and Clinical Reminders from Our Dogs</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2022.04.013</t>
+          <t>https://doi.org/10.1016/j.amjmed.2022.02.008</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35577605</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35263634</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2022.04.013</t>
+          <t>https://doi.org/10.1016/j.amjmed.2022.02.008</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
